--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed4/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.837000000000002</v>
+        <v>-7.620500000000006</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.341500000000007</v>
+        <v>5.277700000000005</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.902199999999994</v>
+        <v>-8.38559999999999</v>
       </c>
     </row>
     <row r="10">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.346099999999998</v>
+        <v>6.125899999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.086699999999995</v>
+        <v>9.124600000000003</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.046899999999999</v>
+        <v>-7.945599999999998</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.382799999999998</v>
+        <v>-7.288599999999998</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.458700000000001</v>
+        <v>-7.592800000000004</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.442800000000005</v>
+        <v>6.323800000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.780200000000002</v>
+        <v>-7.831700000000001</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.493400000000005</v>
+        <v>-7.460300000000003</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.5192</v>
+        <v>-7.381499999999997</v>
       </c>
     </row>
     <row r="49">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.980000000000005</v>
+        <v>-7.776600000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.284800000000001</v>
+        <v>-7.1481</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.910099999999995</v>
+        <v>-6.873599999999998</v>
       </c>
     </row>
     <row r="68">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.386999999999992</v>
+        <v>5.605999999999989</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.040599999999999</v>
+        <v>5.062699999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.971900000000001</v>
+        <v>-8.026700000000003</v>
       </c>
     </row>
     <row r="81">
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.643299999999999</v>
+        <v>5.481</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.106400000000002</v>
+        <v>-8.174400000000002</v>
       </c>
     </row>
     <row r="100">
